--- a/biology/Zoologie/Anisolabididae/Anisolabididae.xlsx
+++ b/biology/Zoologie/Anisolabididae/Anisolabididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anisolabididae,  Anisolabididés en français, forment une famille d'insectes, assignée à l'ordre des Dermaptères. Cette famille a été décrite en 1902 par le zoologiste allemand Karl Wilhelm Verhoeff.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 février 2019) :
 sous-famille des Anisolabidinae Verhoeff, 1902
 sous-famille des Antisolabidinae
 sous-famille des Brachylabidinae
 sous-famille des Isolabidinae
 sous-famille des Parisolabidinae
 sous-famille des Pseudisolabiinae
-Selon  Species File              (14 février 2019)[1] :
+Selon  Species File              (14 février 2019) :
 sous-famille des Anisolabidinae Verhoeff, 1902
 sous-famille des Anophthalmolabidinae Steinmann, 1975
 sous-famille des Antisolabidinae Brindle, 1978
@@ -559,9 +573,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 février 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 février 2019) :
 genre Aborolabis Srivastava, 1969
 genre Anisolabella Zacher, 1911
 genre Anisolabis Fieber, 1853
@@ -575,7 +591,7 @@
 genre Parisopsalis Burr, 1914
 genre Titanolabis Burr, 1910
 genre Zacheria Steinmann, 1975
-Selon Catalogue of Life                                   (14 février 2019)[3] :
+Selon Catalogue of Life                                   (14 février 2019) :
 genre Aborolabis
 genre Africolabis
 genre Anisolabella
@@ -614,7 +630,7 @@
 genre Thekalabis
 genre Titanolabis
 genre Zacheria
-Selon NCBI  (14 février 2019)[4] :
+Selon NCBI  (14 février 2019) :
 genre Anisolabis
 genre Brachylabis
 genre Carcinophora
